--- a/TestLineBot.xlsx
+++ b/TestLineBot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStation\LineBotCarmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{990BC911-CD6D-4B7F-BB7E-67BF26F29343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D3DFC-1AC2-4CAC-855F-58C0D3D8385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="397" windowWidth="14400" windowHeight="7283" xr2:uid="{B063E405-6457-4480-BFC2-6F5FA6558D1F}"/>
+    <workbookView xWindow="3353" yWindow="2798" windowWidth="14400" windowHeight="7282" xr2:uid="{B063E405-6457-4480-BFC2-6F5FA6558D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>請問熊本熊卡的優惠有哪些？</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Hi , 我是您的專屬金融語音助理CARMIN ， 有什麼我可以幫忙的嗎？</t>
+  </si>
+  <si>
+    <t>CUBE卡 的優惠有哪些？</t>
+  </si>
+  <si>
+    <t>國泰世華CUBE卡除現有五大方案: 玩數位、趣旅行、樂饗購最高3.3%小數點回饋，集精選2%小數點回饋，慶生月最高10%小數點回饋(限當月壽星)外，更推出「來支付」第六大權益：CUBE卡綁定三大國際行動支付(Apple Pay/Google Pay/Samsung Pay擇一)，即可切換至「來支付」權益方案，使用 LINE Pay 消費享2%小樹點，回饋無上限。希望這些資訊能幫助您，</t>
+  </si>
+  <si>
+    <t>我也常用LINE Pay，那LINE Pay卡的優惠有哪些？</t>
+  </si>
+  <si>
+    <t>LINE Pay卡享國內消費LINE POINT回饋1%，國外消費LINE POINT回饋 2.8%，旅遊消費LINE POINT回饋最高有17%，綁定行動支付LINE POINT回饋也有2.8%。另外還有一卡通加碼:儲值金支付全臺大眾交通費用LINE POINTS 1%回饋(高鐵除外)</t>
+  </si>
+  <si>
+    <t>星展銀行有哪些信用卡？</t>
+  </si>
+  <si>
+    <t>星展銀行有 eco 永續卡，Everyday 威士御璽卡，星展 HAPPY GO 聯名卡，星展 PChome Prime 聯名卡，和星展饗樂生活卡，您有比較想了解哪一張呢？</t>
+  </si>
+  <si>
+    <t>Everyday 威士御璽卡提供平日電影折扣 最優 6 折(60%)，影音串流平台回饋 25 元/10點（海外串流影音平台包含：Netflix、Disney+、YouTube、Spotify、iTunes享10倍活利積分）以及行動支付現金回饋 15（活動期間內刷 Apple Pay、Samsung Pay、LINE Pay、街口支付，消費筆數達10筆且每筆金額達NT$300， 登錄每筆享最高15%回饋，合計最高回饋NT$500刷卡金 ! 需登錄，回饋名額共12500名）</t>
+  </si>
+  <si>
+    <t>那中國信託有哪些信用卡呢？</t>
+  </si>
+  <si>
+    <t>中國信託目前提供多款信用卡，包括 agoda 聯名卡、LINE Pay 卡、中油 VIP 聯名卡，以及英雄聯盟信用卡。您有比較想了解哪一張呢？</t>
+  </si>
+  <si>
+    <t>英雄聯盟信用卡？</t>
+  </si>
+  <si>
+    <t>好的，英雄聯盟信用卡國內消費現金回饋1%，國外消費現金回饋 2.5%，影音串流平台回饋 3% 包含 Catchplay、KKBOX、KKTV、LINE TV、LiTV、愛爾達電視</t>
+  </si>
+  <si>
+    <t>想去日本玩，哪張卡在日本特別優惠？</t>
+  </si>
+  <si>
+    <t>去日本推兩張信用卡。一張是富邦J卡，另一張是玉山熊本熊卡。富邦J卡當地實體店家享6%回饋，指定商店通路甚至可以到10%回饋。指定商店包括指定便利商店、東京迪士尼、大阪環球影城，日本交通卡、日本松本清、日本大國藥妝。另一張是玉山熊本熊卡，這是一款日圓雙幣卡，國外消費以外幣結算，免收1.5%國外交易服務費，日本旅遊消費，享3.5%優惠無上限。刷日航機票，指定日本商店／訂房網／交通消費，享最高8.5%優惠，回饋雙幣卡版本以日圓結帳，擁日圓匯率優勢。雄獅、Klook指定日本旅遊行程，享專屬優惠。您可以根據您的日本行程和訂購平台做選擇。</t>
+  </si>
+  <si>
+    <t>我比較常去台塑加油，哪張卡比較優惠？</t>
+  </si>
+  <si>
+    <t>推薦國泰世華台塑聯名卡，於台亞/福懋/西歐/速邁樂加油站享優惠包括：自助加油天天降1.2元起，人工加油汽油平日降0.8元起，週三會員日降1元起，柴油天天降0.5元起。在台塑加油站外，其他一般消費每200元回饋1元加油金。台塑生醫實體直營門市/長庚生技實體直營門市/台塑購物網/台塑網旅行社，消費200元回饋2元加油金。</t>
+  </si>
+  <si>
+    <t>我要出國，國外消費現金回饋最多的信用卡是哪張？</t>
+  </si>
+  <si>
+    <t>第一銀行iLEO卡回饋11%為目前最高(3%現金回饋，新戶再加碼8%現金回饋)</t>
+  </si>
+  <si>
+    <t>我都搭長榮出國玩，哪些卡消費可以累積長榮里程呢？</t>
+  </si>
+  <si>
+    <t>目前信用卡提供長榮航空的里程累積分為兩大類：一種是國內外消費皆可累積回饋，另一種是針對飛行及旅行消費累積回饋。您想了解哪一種呢？</t>
+  </si>
+  <si>
+    <t>都說一下</t>
+  </si>
+  <si>
+    <t>好的，第一種回饋最高的是美國運通長榮航空簽帳金卡，國內消費NT$20/哩，國外消費NT$15/哩; 第二種回饋最高的是國泰世華長榮聯名極致無限卡，飛行消費NT$10/哩，旅遊消費NT$20/哩。您可以根據您的消費習慣做選擇。</t>
+  </si>
+  <si>
+    <t>請推薦我2024年首刷禮最好的信用卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們推薦您考慮申辦滙豐 Live+ 現金回饋卡或星展 eco 永續卡。新戶申辦可選擇行李箱、全聯電子禮券或藍牙耳機擇一作為禮品，供您參考。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月刷卡額度都超過6萬以上，想要現金回饋，適合使用哪張卡?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們推薦您考慮申辦台新銀行玫瑰Giving卡。於2024/7/1~2024/12/31結帳帳單使用「台新信用卡數位帳單」及設定「台新帳戶扣繳台新信用卡費」， 即享節假日&amp;海外最高3%台新point回饋。台新point 1點 = 新台幣1元，當月最高回饋上限3000點，每月可消費新台幣10萬元額度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊本熊卡 的優惠包含：國外消費現金回饋: 8.5%, 國外消費現金回饋 info: 含基本回饋國外1%+日本地區消費加碼1%+指定日本商店消費加碼5%+雙幣卡國外消費免收1.5%國外交易服務費, 旅平險: 2,000 萬, 年費: 首年免年費, 年費 info: 使用帳單e化期間享免年費優惠；每年有消費，年年也可免年費, 旅遊消費現金回饋: 8.5%, 旅遊消費現金回饋 info: 日航機票回饋</t>
+    <t>Everyday 威士御璽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +143,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -404,25 +494,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7BA64-223C-4D88-B8E7-71561D0EC3FE}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="55.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestLineBot.xlsx
+++ b/TestLineBot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStation\LineBotCarmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D3DFC-1AC2-4CAC-855F-58C0D3D8385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42863C4B-FE6B-4EC4-B676-1D1F7698F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3353" yWindow="2798" windowWidth="14400" windowHeight="7282" xr2:uid="{B063E405-6457-4480-BFC2-6F5FA6558D1F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{B063E405-6457-4480-BFC2-6F5FA6558D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Hi , 我是您的專屬金融語音助理CARMIN ， 有什麼我可以幫忙的嗎？</t>
   </si>
@@ -42,15 +42,9 @@
     <t>CUBE卡 的優惠有哪些？</t>
   </si>
   <si>
-    <t>國泰世華CUBE卡除現有五大方案: 玩數位、趣旅行、樂饗購最高3.3%小數點回饋，集精選2%小數點回饋，慶生月最高10%小數點回饋(限當月壽星)外，更推出「來支付」第六大權益：CUBE卡綁定三大國際行動支付(Apple Pay/Google Pay/Samsung Pay擇一)，即可切換至「來支付」權益方案，使用 LINE Pay 消費享2%小樹點，回饋無上限。希望這些資訊能幫助您，</t>
-  </si>
-  <si>
     <t>我也常用LINE Pay，那LINE Pay卡的優惠有哪些？</t>
   </si>
   <si>
-    <t>LINE Pay卡享國內消費LINE POINT回饋1%，國外消費LINE POINT回饋 2.8%，旅遊消費LINE POINT回饋最高有17%，綁定行動支付LINE POINT回饋也有2.8%。另外還有一卡通加碼:儲值金支付全臺大眾交通費用LINE POINTS 1%回饋(高鐵除外)</t>
-  </si>
-  <si>
     <t>星展銀行有哪些信用卡？</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>我要出國，國外消費現金回饋最多的信用卡是哪張？</t>
-  </si>
-  <si>
-    <t>第一銀行iLEO卡回饋11%為目前最高(3%現金回饋，新戶再加碼8%現金回饋)</t>
   </si>
   <si>
     <t>我都搭長榮出國玩，哪些卡消費可以累積長榮里程呢？</t>
@@ -124,13 +115,47 @@
   <si>
     <t>Everyday 威士御璽卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國泰世華CUBE卡除現有五大方案: 玩數位、趣旅行、樂饗購最高3.3%小數點回饋，集精選2%小數點回饋，慶生月最高10%小數點回饋(限當月壽星)外，更推出「來支付」第六大權益：CUBE卡綁定三大國際行動支付(Apple Pay/Google Pay/Samsung Pay擇一)，即可切換至「來支付」權益方案，使用 LINE Pay 消費享2%小樹點，回饋無上限。希望這些資訊能幫助您。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE Pay卡享國內消費LINE POINT回饋1%，國外消費LINE POINT回饋 2.8%，旅遊消費LINE POINT回饋最高有17%，綁定行動支付LINE POINT回饋也有2.8%。另外還有一卡通加碼:儲值金支付全臺大眾交通費用LINE POINTS 1%回饋(高鐵除外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一銀行iLEO卡回饋11%為目前最高(3%現金回饋，新戶再加碼8%現金回饋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">您好！關於台塑聯名卡的優惠，最吸引人的就是加油降價啦！
+每公升汽油現折1.2元，幫您省油錢！
+另外，在年費方面：首年免年費，讓您輕鬆體驗卡片好康。
+鈦金商務卡/晶緻卡正附卡消費滿12萬元，或白金卡年度消費1次，次年就免年費囉！
+總之，台塑聯名卡讓您加油省錢又方便！ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⛽</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請問台塑聯名卡的優惠有哪些？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +177,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,9 +207,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,18 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7BA64-223C-4D88-B8E7-71561D0EC3FE}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="63.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -516,103 +553,111 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="131.65" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
